--- a/Visualization/results/processed_EMtrace/all_neurons_transients.xlsx
+++ b/Visualization/results/processed_EMtrace/all_neurons_transients.xlsx
@@ -2145,7 +2145,7 @@
         <v>110</v>
       </c>
       <c r="K29" t="n">
-        <v>168.6991203143106</v>
+        <v>168.6991203143107</v>
       </c>
       <c r="L29" t="n">
         <v>3.551564380087155</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(10), 'value': np.float64(1.113558707597563), 'amplitude': np.float64(1.7734517194363564), 'start_idx': np.int64(1), 'end_idx': np.int64(24), 'duration': np.float64(23.0), 'fwhm': np.float64(12.650929708900977), 'rise_time': np.float64(9.0), 'decay_time': np.float64(14.0), 'auc': np.float64(32.9389458360613)}, {'index': np.int64(83), 'value': np.float64(1.0857755379204865), 'amplitude': np.float64(1.7456685497592797), 'start_idx': np.int64(70), 'end_idx': np.int64(95), 'duration': np.float64(25.0), 'fwhm': np.float64(27.11375346203957), 'rise_time': np.float64(13.0), 'decay_time': np.float64(12.0), 'auc': np.float64(34.945581748818356)}]</t>
+          <t>[{'index': np.int64(10), 'value': np.float64(1.113558707597565), 'amplitude': np.float64(1.7734517194363582), 'start_idx': np.int64(1), 'end_idx': np.int64(24), 'duration': np.float64(23.0), 'fwhm': np.float64(12.65092970890097), 'rise_time': np.float64(9.0), 'decay_time': np.float64(14.0), 'auc': np.float64(32.938945836061315)}, {'index': np.int64(83), 'value': np.float64(1.0857755379204865), 'amplitude': np.float64(1.7456685497592797), 'start_idx': np.int64(70), 'end_idx': np.int64(95), 'duration': np.float64(25.0), 'fwhm': np.float64(27.11375346203957), 'rise_time': np.float64(13.0), 'decay_time': np.float64(12.0), 'auc': np.float64(34.945581748818356)}]</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3139,7 +3139,7 @@
         <v>42</v>
       </c>
       <c r="H46" t="n">
-        <v>17.96009834619179</v>
+        <v>17.96009834619178</v>
       </c>
       <c r="I46" t="n">
         <v>26</v>
@@ -3148,10 +3148,10 @@
         <v>16</v>
       </c>
       <c r="K46" t="n">
-        <v>79.09869464347099</v>
+        <v>79.09869464347102</v>
       </c>
       <c r="L46" t="n">
-        <v>6.289231646357843</v>
+        <v>6.289231646357844</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45.56363694321897</v>
       </c>
       <c r="L47" t="n">
-        <v>3.489932881468693</v>
+        <v>3.489932881468694</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>79.7128470096212</v>
       </c>
       <c r="L48" t="n">
-        <v>4.350745782751462</v>
+        <v>4.350745782751463</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>205.7641802844766</v>
       </c>
       <c r="L49" t="n">
-        <v>4.688972048038801</v>
+        <v>4.688972048038802</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>27.02916742398248</v>
       </c>
       <c r="L50" t="n">
-        <v>3.259812733733158</v>
+        <v>3.259812733733159</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>106.0000959251101</v>
       </c>
       <c r="L51" t="n">
-        <v>6.811571917749619</v>
+        <v>6.81157191774962</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>72.48637863479415</v>
       </c>
       <c r="L53" t="n">
-        <v>6.115880863167609</v>
+        <v>6.11588086316761</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>66.77609598892818</v>
       </c>
       <c r="L54" t="n">
-        <v>5.255385517428027</v>
+        <v>5.255385517428028</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>81.81095779304762</v>
       </c>
       <c r="L55" t="n">
-        <v>5.357189963869278</v>
+        <v>5.357189963869279</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>29.15406949853579</v>
       </c>
       <c r="L56" t="n">
-        <v>3.131092907343022</v>
+        <v>3.131092907343023</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>31.26823297763949</v>
       </c>
       <c r="L57" t="n">
-        <v>3.372370726840806</v>
+        <v>3.372370726840807</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>70.7702576487998</v>
       </c>
       <c r="L60" t="n">
-        <v>5.099668461530828</v>
+        <v>5.099668461530829</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>54.31442225453829</v>
       </c>
       <c r="L66" t="n">
-        <v>3.592968171622195</v>
+        <v>3.592968171622196</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>46.92013380795411</v>
       </c>
       <c r="L67" t="n">
-        <v>3.714054553486793</v>
+        <v>3.714054553486794</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>111</v>
       </c>
       <c r="H69" t="n">
-        <v>91.68982849414715</v>
+        <v>91.6898284941467</v>
       </c>
       <c r="I69" t="n">
         <v>49</v>
@@ -4508,7 +4508,7 @@
         <v>133.8002553136713</v>
       </c>
       <c r="L69" t="n">
-        <v>5.095369984372168</v>
+        <v>5.095369984372169</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>61.3917530884946</v>
       </c>
       <c r="L70" t="n">
-        <v>4.628354799629864</v>
+        <v>4.628354799629865</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>72.14896580721279</v>
       </c>
       <c r="L71" t="n">
-        <v>4.640059796936285</v>
+        <v>4.640059796936286</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>53.03110240097713</v>
       </c>
       <c r="L72" t="n">
-        <v>3.453458614615433</v>
+        <v>3.453458614615434</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>161.7368808668826</v>
       </c>
       <c r="L74" t="n">
-        <v>4.905401256189792</v>
+        <v>4.905401256189793</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>1.426635081646222</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7559971266588532</v>
+        <v>0.7559971266588533</v>
       </c>
       <c r="F126" t="n">
         <v>-0.6706379549873684</v>
@@ -9228,7 +9228,7 @@
         <v>38.44994579349274</v>
       </c>
       <c r="L149" t="n">
-        <v>8.285225216593121</v>
+        <v>8.285225216593119</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>23.49222085935439</v>
       </c>
       <c r="L150" t="n">
-        <v>4.369357927784523</v>
+        <v>4.369357927784522</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>127.7042259870718</v>
       </c>
       <c r="L151" t="n">
-        <v>15.27258142920617</v>
+        <v>15.27258142920616</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>50.27091961668566</v>
       </c>
       <c r="L152" t="n">
-        <v>6.107516425067977</v>
+        <v>6.107516425067976</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44.74972222158206</v>
       </c>
       <c r="L155" t="n">
-        <v>7.532907227454822</v>
+        <v>7.532907227454821</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>26.65367164273588</v>
       </c>
       <c r="L158" t="n">
-        <v>8.771266454049792</v>
+        <v>8.77126645404979</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>133.4683726067804</v>
       </c>
       <c r="L161" t="n">
-        <v>20.59233611066608</v>
+        <v>20.59233611066607</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>30.94201626365741</v>
       </c>
       <c r="L165" t="n">
-        <v>4.546880427949007</v>
+        <v>4.546880427949006</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>53.98856259145683</v>
       </c>
       <c r="L166" t="n">
-        <v>6.893322051650625</v>
+        <v>6.893322051650624</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>51.7613546177019</v>
       </c>
       <c r="L170" t="n">
-        <v>14.00433147826978</v>
+        <v>14.00433147826977</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43.41279837270431</v>
       </c>
       <c r="L173" t="n">
-        <v>8.966881039510181</v>
+        <v>8.966881039510179</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>68.37162734524371</v>
       </c>
       <c r="L174" t="n">
-        <v>11.64412787420077</v>
+        <v>11.64412787420076</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>34.62561287679328</v>
       </c>
       <c r="L175" t="n">
-        <v>4.798773469742373</v>
+        <v>4.798773469742372</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -11269,10 +11269,10 @@
         <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>4.925236978878507</v>
+        <v>4.925236978878508</v>
       </c>
       <c r="E184" t="n">
-        <v>4.211467178338641</v>
+        <v>4.211467178338642</v>
       </c>
       <c r="F184" t="n">
         <v>-0.7137698005398659</v>
@@ -11281,7 +11281,7 @@
         <v>41</v>
       </c>
       <c r="H184" t="n">
-        <v>5.388543510327652</v>
+        <v>5.388543510327683</v>
       </c>
       <c r="I184" t="n">
         <v>4</v>
@@ -17075,7 +17075,7 @@
         <v>213.7380571813243</v>
       </c>
       <c r="L282" t="n">
-        <v>3.2866632427404</v>
+        <v>3.286663242740399</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
@@ -18821,13 +18821,13 @@
         <v>178</v>
       </c>
       <c r="D312" t="n">
-        <v>0.357713290142263</v>
+        <v>0.3577132901422627</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.355034656972739</v>
+        <v>-0.3550346569727389</v>
       </c>
       <c r="F312" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G312" t="n">
         <v>178</v>
@@ -18842,10 +18842,10 @@
         <v>8</v>
       </c>
       <c r="K312" t="n">
-        <v>32.84903368002114</v>
+        <v>32.84903368002109</v>
       </c>
       <c r="L312" t="n">
-        <v>3.104636941072292</v>
+        <v>3.10463694107229</v>
       </c>
       <c r="M312" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(13), 'value': np.float64(-0.42575528317118144), 'amplitude': np.float64(0.28699266394382056), 'start_idx': np.int64(1), 'end_idx': np.int64(24), 'duration': np.float64(23.0), 'fwhm': np.float64(11.246586295105228), 'rise_time': np.float64(12.0), 'decay_time': np.float64(11.0), 'auc': np.float64(5.7634882624693065)}, {'index': np.int64(63), 'value': np.float64(-0.44745613073995005), 'amplitude': np.float64(0.26529181637505195), 'start_idx': np.int64(52), 'end_idx': np.int64(74), 'duration': np.float64(22.0), 'fwhm': np.float64(11.574471635094277), 'rise_time': np.float64(11.0), 'decay_time': np.float64(11.0), 'auc': np.float64(4.036558009643264)}, {'index': np.int64(85), 'value': np.float64(-0.512548363792412), 'amplitude': np.float64(0.20019958332259002), 'start_idx': np.int64(74), 'end_idx': np.int64(101), 'duration': np.float64(27.0), 'fwhm': np.float64(13.592329943829682), 'rise_time': np.float64(11.0), 'decay_time': np.float64(16.0), 'auc': np.float64(4.161556088971273)}, {'index': np.int64(113), 'value': np.float64(-0.41214788205581016), 'amplitude': np.float64(0.30060006505919185), 'start_idx': np.int64(101), 'end_idx': np.int64(125), 'duration': np.float64(24.0), 'fwhm': np.float64(10.902298603509294), 'rise_time': np.float64(12.0), 'decay_time': np.float64(12.0), 'auc': np.float64(4.0047422503707)}]</t>
+          <t>[{'index': np.int64(13), 'value': np.float64(-0.42575528317118133), 'amplitude': np.float64(0.2869926639438202), 'start_idx': np.int64(1), 'end_idx': np.int64(24), 'duration': np.float64(23.0), 'fwhm': np.float64(11.246586295105221), 'rise_time': np.float64(12.0), 'decay_time': np.float64(11.0), 'auc': np.float64(5.763488262469298)}, {'index': np.int64(63), 'value': np.float64(-0.4474561307399498), 'amplitude': np.float64(0.2652918163750518), 'start_idx': np.int64(52), 'end_idx': np.int64(74), 'duration': np.float64(22.0), 'fwhm': np.float64(11.574471635094277), 'rise_time': np.float64(11.0), 'decay_time': np.float64(11.0), 'auc': np.float64(4.03655800964326)}, {'index': np.int64(85), 'value': np.float64(-0.5125483637924118), 'amplitude': np.float64(0.2001995833225898), 'start_idx': np.int64(74), 'end_idx': np.int64(101), 'duration': np.float64(27.0), 'fwhm': np.float64(13.592329943829697), 'rise_time': np.float64(11.0), 'decay_time': np.float64(16.0), 'auc': np.float64(4.161556088971267)}, {'index': np.int64(113), 'value': np.float64(-0.4121478820558098), 'amplitude': np.float64(0.30060006505919173), 'start_idx': np.int64(101), 'end_idx': np.int64(125), 'duration': np.float64(24.0), 'fwhm': np.float64(10.90229860350928), 'rise_time': np.float64(12.0), 'decay_time': np.float64(12.0), 'auc': np.float64(4.004742250370696)}]</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
@@ -18880,19 +18880,19 @@
         <v>239</v>
       </c>
       <c r="D313" t="n">
-        <v>0.4258720893253022</v>
+        <v>0.4258720893253019</v>
       </c>
       <c r="E313" t="n">
-        <v>-0.2868758577896998</v>
+        <v>-0.2868758577896997</v>
       </c>
       <c r="F313" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G313" t="n">
         <v>61</v>
       </c>
       <c r="H313" t="n">
-        <v>27.26776418590066</v>
+        <v>27.26776418590069</v>
       </c>
       <c r="I313" t="n">
         <v>12</v>
@@ -18901,10 +18901,10 @@
         <v>49</v>
       </c>
       <c r="K313" t="n">
-        <v>17.78369601584798</v>
+        <v>17.78369601584796</v>
       </c>
       <c r="L313" t="n">
-        <v>3.696195408801111</v>
+        <v>3.696195408801109</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
@@ -18939,13 +18939,13 @@
         <v>301</v>
       </c>
       <c r="D314" t="n">
-        <v>0.6300673177475998</v>
+        <v>0.6300673177475995</v>
       </c>
       <c r="E314" t="n">
-        <v>-0.08268062936740216</v>
+        <v>-0.0826806293674021</v>
       </c>
       <c r="F314" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G314" t="n">
         <v>62</v>
@@ -18960,10 +18960,10 @@
         <v>27</v>
       </c>
       <c r="K314" t="n">
-        <v>22.92904823504172</v>
+        <v>22.9290482350417</v>
       </c>
       <c r="L314" t="n">
-        <v>5.468430511104512</v>
+        <v>5.468430511104511</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
@@ -18998,13 +18998,13 @@
         <v>424</v>
       </c>
       <c r="D315" t="n">
-        <v>0.4281312238663915</v>
+        <v>0.4281312238663911</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.2846167232486105</v>
+        <v>-0.2846167232486104</v>
       </c>
       <c r="F315" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G315" t="n">
         <v>123</v>
@@ -19019,10 +19019,10 @@
         <v>15</v>
       </c>
       <c r="K315" t="n">
-        <v>26.98982690664278</v>
+        <v>26.98982690664274</v>
       </c>
       <c r="L315" t="n">
-        <v>3.715802710918202</v>
+        <v>3.7158027109182</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(311), 'value': np.float64(-0.44552750625691806), 'amplitude': np.float64(0.26722044085808394), 'start_idx': np.int64(302), 'end_idx': np.int64(332), 'duration': np.float64(30.0), 'fwhm': np.float64(12.310927854855947), 'rise_time': np.float64(9.0), 'decay_time': np.float64(21.0), 'auc': np.float64(3.9461867787581832)}, {'index': np.int64(375), 'value': np.float64(-0.3968780862565118), 'amplitude': np.float64(0.3158698608584902), 'start_idx': np.int64(357), 'end_idx': np.int64(384), 'duration': np.float64(27.0), 'fwhm': np.float64(12.864187159478774), 'rise_time': np.float64(18.0), 'decay_time': np.float64(9.0), 'auc': np.float64(6.90234516964118)}]</t>
+          <t>[{'index': np.int64(311), 'value': np.float64(-0.4455275062569178), 'amplitude': np.float64(0.2672204408580838), 'start_idx': np.int64(302), 'end_idx': np.int64(332), 'duration': np.float64(30.0), 'fwhm': np.float64(12.310927854855947), 'rise_time': np.float64(9.0), 'decay_time': np.float64(21.0), 'auc': np.float64(3.946186778758176)}, {'index': np.int64(375), 'value': np.float64(-0.39687808625651166), 'amplitude': np.float64(0.3158698608584899), 'start_idx': np.int64(357), 'end_idx': np.int64(384), 'duration': np.float64(27.0), 'fwhm': np.float64(12.864187159478774), 'rise_time': np.float64(18.0), 'decay_time': np.float64(9.0), 'auc': np.float64(6.902345169641172)}]</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
@@ -19057,13 +19057,13 @@
         <v>455</v>
       </c>
       <c r="D316" t="n">
-        <v>0.5796631842699816</v>
+        <v>0.5796631842699813</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.1330847628450203</v>
+        <v>-0.1330847628450202</v>
       </c>
       <c r="F316" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G316" t="n">
         <v>31</v>
@@ -19081,7 +19081,7 @@
         <v>12.55894500259009</v>
       </c>
       <c r="L316" t="n">
-        <v>5.030966935973946</v>
+        <v>5.030966935973945</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
@@ -19116,13 +19116,13 @@
         <v>480</v>
       </c>
       <c r="D317" t="n">
-        <v>0.3632096089476278</v>
+        <v>0.3632096089476275</v>
       </c>
       <c r="E317" t="n">
-        <v>-0.3495383381673742</v>
+        <v>-0.349538338167374</v>
       </c>
       <c r="F317" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G317" t="n">
         <v>25</v>
@@ -19137,10 +19137,10 @@
         <v>10</v>
       </c>
       <c r="K317" t="n">
-        <v>8.555392807716995</v>
+        <v>8.55539280771699</v>
       </c>
       <c r="L317" t="n">
-        <v>3.152340157232529</v>
+        <v>3.152340157232528</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
@@ -19175,19 +19175,19 @@
         <v>523</v>
       </c>
       <c r="D318" t="n">
-        <v>0.4451056898183502</v>
+        <v>0.4451056898183499</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.2676422572966518</v>
+        <v>-0.2676422572966516</v>
       </c>
       <c r="F318" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G318" t="n">
         <v>43</v>
       </c>
       <c r="H318" t="n">
-        <v>7.802998375034349</v>
+        <v>7.802998375034406</v>
       </c>
       <c r="I318" t="n">
         <v>9</v>
@@ -19196,10 +19196,10 @@
         <v>34</v>
       </c>
       <c r="K318" t="n">
-        <v>11.46178018924151</v>
+        <v>11.46178018924149</v>
       </c>
       <c r="L318" t="n">
-        <v>3.863126155424461</v>
+        <v>3.86312615542446</v>
       </c>
       <c r="M318" t="inlineStr">
         <is>
@@ -19234,13 +19234,13 @@
         <v>555</v>
       </c>
       <c r="D319" t="n">
-        <v>0.3829878993554426</v>
+        <v>0.3829878993554424</v>
       </c>
       <c r="E319" t="n">
-        <v>-0.3297600477595594</v>
+        <v>-0.3297600477595592</v>
       </c>
       <c r="F319" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G319" t="n">
         <v>32</v>
@@ -19255,10 +19255,10 @@
         <v>7</v>
       </c>
       <c r="K319" t="n">
-        <v>6.481476562945828</v>
+        <v>6.48147656294582</v>
       </c>
       <c r="L319" t="n">
-        <v>3.323998333552835</v>
+        <v>3.323998333552834</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
@@ -19293,13 +19293,13 @@
         <v>569</v>
       </c>
       <c r="D320" t="n">
-        <v>0.4008233033065932</v>
+        <v>0.4008233033065928</v>
       </c>
       <c r="E320" t="n">
         <v>-0.3119246438084088</v>
       </c>
       <c r="F320" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G320" t="n">
         <v>14</v>
@@ -19314,10 +19314,10 @@
         <v>4</v>
       </c>
       <c r="K320" t="n">
-        <v>5.268995076935406</v>
+        <v>5.268995076935401</v>
       </c>
       <c r="L320" t="n">
-        <v>3.47879396315795</v>
+        <v>3.478793963157948</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
@@ -19352,13 +19352,13 @@
         <v>607</v>
       </c>
       <c r="D321" t="n">
-        <v>1.075000393049898</v>
+        <v>1.075000393049897</v>
       </c>
       <c r="E321" t="n">
-        <v>0.3622524459348956</v>
+        <v>0.3622524459348955</v>
       </c>
       <c r="F321" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G321" t="n">
         <v>38</v>
@@ -19373,10 +19373,10 @@
         <v>21</v>
       </c>
       <c r="K321" t="n">
-        <v>31.06540673779935</v>
+        <v>31.06540673779933</v>
       </c>
       <c r="L321" t="n">
-        <v>9.33005852425171</v>
+        <v>9.330058524251706</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
@@ -19411,13 +19411,13 @@
         <v>651</v>
       </c>
       <c r="D322" t="n">
-        <v>0.8245000953190749</v>
+        <v>0.8245000953190744</v>
       </c>
       <c r="E322" t="n">
         <v>0.1117521482040728</v>
       </c>
       <c r="F322" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G322" t="n">
         <v>44</v>
@@ -19432,10 +19432,10 @@
         <v>33</v>
       </c>
       <c r="K322" t="n">
-        <v>23.64408422659565</v>
+        <v>23.64408422659563</v>
       </c>
       <c r="L322" t="n">
-        <v>7.155936120872671</v>
+        <v>7.15593612087267</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
@@ -19470,13 +19470,13 @@
         <v>716</v>
       </c>
       <c r="D323" t="n">
-        <v>0.385540804704722</v>
+        <v>0.3855408047047217</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.32720714241028</v>
+        <v>-0.3272071424102799</v>
       </c>
       <c r="F323" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G323" t="n">
         <v>65</v>
@@ -19491,10 +19491,10 @@
         <v>8</v>
       </c>
       <c r="K323" t="n">
-        <v>19.07812004611705</v>
+        <v>19.07812004611703</v>
       </c>
       <c r="L323" t="n">
-        <v>3.34615530807084</v>
+        <v>3.346155308070839</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(662), 'value': np.float64(-0.38922379137988733), 'amplitude': np.float64(0.32352415573511467), 'start_idx': np.int64(652), 'end_idx': np.int64(671), 'duration': np.float64(19.0), 'fwhm': np.float64(11.75618048475394), 'rise_time': np.float64(10.0), 'decay_time': np.float64(9.0), 'auc': np.float64(5.132260589170322)}]</t>
+          <t>[{'index': np.int64(662), 'value': np.float64(-0.3892237913798871), 'amplitude': np.float64(0.32352415573511445), 'start_idx': np.int64(652), 'end_idx': np.int64(671), 'duration': np.float64(19.0), 'fwhm': np.float64(11.75618048475394), 'rise_time': np.float64(10.0), 'decay_time': np.float64(9.0), 'auc': np.float64(5.132260589170317)}]</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
@@ -19529,13 +19529,13 @@
         <v>746</v>
       </c>
       <c r="D324" t="n">
-        <v>0.5106991335910044</v>
+        <v>0.5106991335910041</v>
       </c>
       <c r="E324" t="n">
         <v>-0.2020488135239976</v>
       </c>
       <c r="F324" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G324" t="n">
         <v>30</v>
@@ -19550,10 +19550,10 @@
         <v>15</v>
       </c>
       <c r="K324" t="n">
-        <v>12.81048539331189</v>
+        <v>12.81048539331188</v>
       </c>
       <c r="L324" t="n">
-        <v>4.432419593048042</v>
+        <v>4.43241959304804</v>
       </c>
       <c r="M324" t="inlineStr">
         <is>
@@ -19588,13 +19588,13 @@
         <v>799</v>
       </c>
       <c r="D325" t="n">
-        <v>0.3665655730366019</v>
+        <v>0.3665655730366016</v>
       </c>
       <c r="E325" t="n">
-        <v>-0.3461823740784001</v>
+        <v>-0.3461823740784</v>
       </c>
       <c r="F325" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G325" t="n">
         <v>53</v>
@@ -19609,10 +19609,10 @@
         <v>50</v>
       </c>
       <c r="K325" t="n">
-        <v>9.702385457181435</v>
+        <v>9.702385457181421</v>
       </c>
       <c r="L325" t="n">
-        <v>3.181466975750782</v>
+        <v>3.181466975750781</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
@@ -19647,13 +19647,13 @@
         <v>852</v>
       </c>
       <c r="D326" t="n">
-        <v>0.3663208320810737</v>
+        <v>0.3663208320810734</v>
       </c>
       <c r="E326" t="n">
-        <v>-0.3464271150339283</v>
+        <v>-0.3464271150339281</v>
       </c>
       <c r="F326" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G326" t="n">
         <v>46</v>
@@ -19668,10 +19668,10 @@
         <v>10</v>
       </c>
       <c r="K326" t="n">
-        <v>6.880090578359596</v>
+        <v>6.880090578359585</v>
       </c>
       <c r="L326" t="n">
-        <v>3.179342839375463</v>
+        <v>3.179342839375462</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(813), 'value': np.float64(-0.5828640540377997), 'amplitude': np.float64(0.12988389307720227), 'start_idx': np.int64(807), 'end_idx': np.int64(830), 'duration': np.float64(23.0), 'fwhm': np.float64(11.725659428125027), 'rise_time': np.float64(6.0), 'decay_time': np.float64(17.0), 'auc': np.float64(2.1613639011316765)}]</t>
+          <t>[{'index': np.int64(813), 'value': np.float64(-0.5828640540377995), 'amplitude': np.float64(0.12988389307720205), 'start_idx': np.int64(807), 'end_idx': np.int64(830), 'duration': np.float64(23.0), 'fwhm': np.float64(11.725659428125027), 'rise_time': np.float64(6.0), 'decay_time': np.float64(17.0), 'auc': np.float64(2.161363901131672)}]</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
@@ -19706,13 +19706,13 @@
         <v>920</v>
       </c>
       <c r="D327" t="n">
-        <v>0.4977250745074052</v>
+        <v>0.4977250745074049</v>
       </c>
       <c r="E327" t="n">
-        <v>-0.2150228726075968</v>
+        <v>-0.2150228726075967</v>
       </c>
       <c r="F327" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G327" t="n">
         <v>68</v>
@@ -19727,10 +19727,10 @@
         <v>10</v>
       </c>
       <c r="K327" t="n">
-        <v>20.0903642853</v>
+        <v>20.09036428529998</v>
       </c>
       <c r="L327" t="n">
-        <v>4.319816163942634</v>
+        <v>4.319816163942633</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(878), 'value': np.float64(-0.376614514456783), 'amplitude': np.float64(0.336133432658219), 'start_idx': np.int64(866), 'end_idx': np.int64(889), 'duration': np.float64(23.0), 'fwhm': np.float64(11.57015860378965), 'rise_time': np.float64(12.0), 'decay_time': np.float64(11.0), 'auc': np.float64(6.020404596148874)}]</t>
+          <t>[{'index': np.int64(878), 'value': np.float64(-0.37661451445678285), 'amplitude': np.float64(0.3361334326582187), 'start_idx': np.int64(866), 'end_idx': np.int64(889), 'duration': np.float64(23.0), 'fwhm': np.float64(11.57015860378965), 'rise_time': np.float64(12.0), 'decay_time': np.float64(11.0), 'auc': np.float64(6.020404596148868)}]</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
@@ -19765,13 +19765,13 @@
         <v>950</v>
       </c>
       <c r="D328" t="n">
-        <v>0.8682057903796887</v>
+        <v>0.8682057903796883</v>
       </c>
       <c r="E328" t="n">
-        <v>0.1554578432646867</v>
+        <v>0.1554578432646868</v>
       </c>
       <c r="F328" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G328" t="n">
         <v>30</v>
@@ -19786,10 +19786,10 @@
         <v>13</v>
       </c>
       <c r="K328" t="n">
-        <v>19.22633371214553</v>
+        <v>19.22633371214551</v>
       </c>
       <c r="L328" t="n">
-        <v>7.535263138234699</v>
+        <v>7.535263138234698</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
@@ -19824,13 +19824,13 @@
         <v>1059</v>
       </c>
       <c r="D329" t="n">
-        <v>0.7074337061268695</v>
+        <v>0.7074337061268691</v>
       </c>
       <c r="E329" t="n">
-        <v>-0.005314240988132483</v>
+        <v>-0.005314240988132457</v>
       </c>
       <c r="F329" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G329" t="n">
         <v>109</v>
@@ -19845,10 +19845,10 @@
         <v>94</v>
       </c>
       <c r="K329" t="n">
-        <v>37.14516533901732</v>
+        <v>37.1451653390173</v>
       </c>
       <c r="L329" t="n">
-        <v>6.139902759910536</v>
+        <v>6.139902759910534</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1040), 'value': np.float64(-0.40142607456173174), 'amplitude': np.float64(0.31132187255327026), 'start_idx': np.int64(1027), 'end_idx': np.int64(1048), 'duration': np.float64(21.0), 'fwhm': np.float64(19.54481861510044), 'rise_time': np.float64(13.0), 'decay_time': np.float64(8.0), 'auc': np.float64(5.0899765277287985)}]</t>
+          <t>[{'index': np.int64(1040), 'value': np.float64(-0.40142607456173157), 'amplitude': np.float64(0.31132187255327), 'start_idx': np.int64(1027), 'end_idx': np.int64(1048), 'duration': np.float64(21.0), 'fwhm': np.float64(19.54481861510044), 'rise_time': np.float64(13.0), 'decay_time': np.float64(8.0), 'auc': np.float64(5.089976527728794)}]</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -19883,13 +19883,13 @@
         <v>1078</v>
       </c>
       <c r="D330" t="n">
-        <v>0.357636715538843</v>
+        <v>0.3576367155388426</v>
       </c>
       <c r="E330" t="n">
-        <v>-0.355111231576159</v>
+        <v>-0.3551112315761589</v>
       </c>
       <c r="F330" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G330" t="n">
         <v>19</v>
@@ -19904,10 +19904,10 @@
         <v>7</v>
       </c>
       <c r="K330" t="n">
-        <v>4.140911097310976</v>
+        <v>4.140911097310971</v>
       </c>
       <c r="L330" t="n">
-        <v>3.103972340820981</v>
+        <v>3.103972340820979</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
@@ -19942,13 +19942,13 @@
         <v>1119</v>
       </c>
       <c r="D331" t="n">
-        <v>0.505885370625311</v>
+        <v>0.5058853706253107</v>
       </c>
       <c r="E331" t="n">
-        <v>-0.206862576489691</v>
+        <v>-0.2068625764896909</v>
       </c>
       <c r="F331" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G331" t="n">
         <v>41</v>
@@ -19963,10 +19963,10 @@
         <v>24</v>
       </c>
       <c r="K331" t="n">
-        <v>12.51143397650769</v>
+        <v>12.51143397650767</v>
       </c>
       <c r="L331" t="n">
-        <v>4.39064036163365</v>
+        <v>4.390640361633649</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
@@ -20001,13 +20001,13 @@
         <v>1168</v>
       </c>
       <c r="D332" t="n">
-        <v>1.032689451503621</v>
+        <v>1.03268945150362</v>
       </c>
       <c r="E332" t="n">
         <v>0.3199415043886188</v>
       </c>
       <c r="F332" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G332" t="n">
         <v>26</v>
@@ -20022,7 +20022,7 @@
         <v>13</v>
       </c>
       <c r="K332" t="n">
-        <v>17.50202065845875</v>
+        <v>17.50202065845874</v>
       </c>
       <c r="L332" t="n">
         <v>8.962836741454989</v>
@@ -20060,13 +20060,13 @@
         <v>1187</v>
       </c>
       <c r="D333" t="n">
-        <v>0.6549626364760222</v>
+        <v>0.6549626364760218</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.0577853106389798</v>
+        <v>-0.05778531063897976</v>
       </c>
       <c r="F333" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G333" t="n">
         <v>19</v>
@@ -20081,10 +20081,10 @@
         <v>12</v>
       </c>
       <c r="K333" t="n">
-        <v>10.52687639345267</v>
+        <v>10.52687639345266</v>
       </c>
       <c r="L333" t="n">
-        <v>5.684499995560318</v>
+        <v>5.684499995560317</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
@@ -20119,13 +20119,13 @@
         <v>1213</v>
       </c>
       <c r="D334" t="n">
-        <v>0.5102775671102024</v>
+        <v>0.5102775671102021</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.2024703800047995</v>
+        <v>-0.2024703800047994</v>
       </c>
       <c r="F334" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G334" t="n">
         <v>26</v>
@@ -20140,10 +20140,10 @@
         <v>17</v>
       </c>
       <c r="K334" t="n">
-        <v>10.36832414032179</v>
+        <v>10.36832414032178</v>
       </c>
       <c r="L334" t="n">
-        <v>4.428760766536746</v>
+        <v>4.428760766536745</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
@@ -20178,13 +20178,13 @@
         <v>1261</v>
       </c>
       <c r="D335" t="n">
-        <v>0.3585286646953248</v>
+        <v>0.3585286646953245</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.3542192824196772</v>
+        <v>-0.3542192824196771</v>
       </c>
       <c r="F335" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G335" t="n">
         <v>48</v>
@@ -20199,10 +20199,10 @@
         <v>24</v>
       </c>
       <c r="K335" t="n">
-        <v>14.06781620114427</v>
+        <v>14.06781620114426</v>
       </c>
       <c r="L335" t="n">
-        <v>3.111713675507401</v>
+        <v>3.111713675507399</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
@@ -20237,13 +20237,13 @@
         <v>1283</v>
       </c>
       <c r="D336" t="n">
-        <v>0.4433280602240091</v>
+        <v>0.4433280602240087</v>
       </c>
       <c r="E336" t="n">
-        <v>-0.2694198868909929</v>
+        <v>-0.2694198868909928</v>
       </c>
       <c r="F336" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G336" t="n">
         <v>22</v>
@@ -20258,10 +20258,10 @@
         <v>9</v>
       </c>
       <c r="K336" t="n">
-        <v>7.409184976025389</v>
+        <v>7.409184976025383</v>
       </c>
       <c r="L336" t="n">
-        <v>3.847697893019281</v>
+        <v>3.84769789301928</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
@@ -20296,13 +20296,13 @@
         <v>1309</v>
       </c>
       <c r="D337" t="n">
-        <v>0.3867575762588333</v>
+        <v>0.3867575762588329</v>
       </c>
       <c r="E337" t="n">
         <v>-0.3259903708561687</v>
       </c>
       <c r="F337" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G337" t="n">
         <v>26</v>
@@ -20317,10 +20317,10 @@
         <v>15</v>
       </c>
       <c r="K337" t="n">
-        <v>8.370127899555506</v>
+        <v>8.370127899555499</v>
       </c>
       <c r="L337" t="n">
-        <v>3.356715815661256</v>
+        <v>3.356715815661254</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
@@ -20355,13 +20355,13 @@
         <v>1428</v>
       </c>
       <c r="D338" t="n">
-        <v>0.3535910838602528</v>
+        <v>0.3535910838602525</v>
       </c>
       <c r="E338" t="n">
-        <v>-0.3591568632547492</v>
+        <v>-0.359156863254749</v>
       </c>
       <c r="F338" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G338" t="n">
         <v>119</v>
@@ -20376,10 +20376,10 @@
         <v>106</v>
       </c>
       <c r="K338" t="n">
-        <v>24.95765380832408</v>
+        <v>24.95765380832405</v>
       </c>
       <c r="L338" t="n">
-        <v>3.068859813818341</v>
+        <v>3.06885981381834</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1349), 'value': np.float64(-0.4462140157261516), 'amplitude': np.float64(0.2665339313888504), 'start_idx': np.int64(1336), 'end_idx': np.int64(1363), 'duration': np.float64(27.0), 'fwhm': np.float64(16.049501766252888), 'rise_time': np.float64(13.0), 'decay_time': np.float64(14.0), 'auc': np.float64(6.190747021692534)}]</t>
+          <t>[{'index': np.int64(1349), 'value': np.float64(-0.44621401572615144), 'amplitude': np.float64(0.2665339313888501), 'start_idx': np.int64(1336), 'end_idx': np.int64(1363), 'duration': np.float64(27.0), 'fwhm': np.float64(16.049501766252888), 'rise_time': np.float64(13.0), 'decay_time': np.float64(14.0), 'auc': np.float64(6.190747021692526)}]</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -20414,13 +20414,13 @@
         <v>1473</v>
       </c>
       <c r="D339" t="n">
-        <v>0.3684771155328257</v>
+        <v>0.3684771155328254</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.3442708315821763</v>
+        <v>-0.3442708315821761</v>
       </c>
       <c r="F339" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G339" t="n">
         <v>38</v>
@@ -20435,10 +20435,10 @@
         <v>25</v>
       </c>
       <c r="K339" t="n">
-        <v>7.122847591916943</v>
+        <v>7.122847591916932</v>
       </c>
       <c r="L339" t="n">
-        <v>3.198057484439586</v>
+        <v>3.198057484439585</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
@@ -20473,13 +20473,13 @@
         <v>1586</v>
       </c>
       <c r="D340" t="n">
-        <v>2.532993036974905</v>
+        <v>2.532993036974904</v>
       </c>
       <c r="E340" t="n">
         <v>1.820245089859903</v>
       </c>
       <c r="F340" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G340" t="n">
         <v>75</v>
@@ -20494,7 +20494,7 @@
         <v>6</v>
       </c>
       <c r="K340" t="n">
-        <v>61.56379293479957</v>
+        <v>61.56379293479954</v>
       </c>
       <c r="L340" t="n">
         <v>21.98415314942213</v>
@@ -20532,13 +20532,13 @@
         <v>1616</v>
       </c>
       <c r="D341" t="n">
-        <v>3.424780718540862</v>
+        <v>3.42478071854086</v>
       </c>
       <c r="E341" t="n">
-        <v>2.712032771425859</v>
+        <v>2.712032771425858</v>
       </c>
       <c r="F341" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G341" t="n">
         <v>30</v>
@@ -20553,7 +20553,7 @@
         <v>15</v>
       </c>
       <c r="K341" t="n">
-        <v>92.69734122034595</v>
+        <v>92.6973412203459</v>
       </c>
       <c r="L341" t="n">
         <v>29.72408637550321</v>
@@ -20591,13 +20591,13 @@
         <v>1636</v>
       </c>
       <c r="D342" t="n">
-        <v>3.132400612249252</v>
+        <v>3.132400612249251</v>
       </c>
       <c r="E342" t="n">
         <v>2.41965266513425</v>
       </c>
       <c r="F342" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G342" t="n">
         <v>20</v>
@@ -20612,7 +20612,7 @@
         <v>17</v>
       </c>
       <c r="K342" t="n">
-        <v>58.15777902181142</v>
+        <v>58.1577790218114</v>
       </c>
       <c r="L342" t="n">
         <v>27.18648404469082</v>
@@ -20650,13 +20650,13 @@
         <v>1694</v>
       </c>
       <c r="D343" t="n">
-        <v>3.56047707157903</v>
+        <v>3.560477071579029</v>
       </c>
       <c r="E343" t="n">
-        <v>2.847729124464029</v>
+        <v>2.847729124464028</v>
       </c>
       <c r="F343" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G343" t="n">
         <v>58</v>
@@ -20671,7 +20671,7 @@
         <v>34</v>
       </c>
       <c r="K343" t="n">
-        <v>177.4847201548898</v>
+        <v>177.4847201548897</v>
       </c>
       <c r="L343" t="n">
         <v>30.90181144756732</v>
@@ -20709,13 +20709,13 @@
         <v>1726</v>
       </c>
       <c r="D344" t="n">
-        <v>3.746586744254414</v>
+        <v>3.746586744254413</v>
       </c>
       <c r="E344" t="n">
-        <v>3.033838797139412</v>
+        <v>3.033838797139411</v>
       </c>
       <c r="F344" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G344" t="n">
         <v>32</v>
@@ -20730,10 +20730,10 @@
         <v>18</v>
       </c>
       <c r="K344" t="n">
-        <v>98.01625910228321</v>
+        <v>98.01625910228319</v>
       </c>
       <c r="L344" t="n">
-        <v>32.51707982255299</v>
+        <v>32.51707982255298</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
@@ -20768,13 +20768,13 @@
         <v>1750</v>
       </c>
       <c r="D345" t="n">
-        <v>2.389148203505425</v>
+        <v>2.389148203505424</v>
       </c>
       <c r="E345" t="n">
-        <v>1.676400256390423</v>
+        <v>1.676400256390422</v>
       </c>
       <c r="F345" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G345" t="n">
         <v>24</v>
@@ -20789,10 +20789,10 @@
         <v>17</v>
       </c>
       <c r="K345" t="n">
-        <v>46.40221056718487</v>
+        <v>46.40221056718485</v>
       </c>
       <c r="L345" t="n">
-        <v>20.73570642944108</v>
+        <v>20.73570642944107</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
@@ -20827,13 +20827,13 @@
         <v>1800</v>
       </c>
       <c r="D346" t="n">
-        <v>1.721709196151556</v>
+        <v>1.721709196151555</v>
       </c>
       <c r="E346" t="n">
         <v>1.008961249036554</v>
       </c>
       <c r="F346" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G346" t="n">
         <v>50</v>
@@ -20848,7 +20848,7 @@
         <v>31</v>
       </c>
       <c r="K346" t="n">
-        <v>71.61672290982931</v>
+        <v>71.61672290982928</v>
       </c>
       <c r="L346" t="n">
         <v>14.94292250095091</v>
@@ -20892,7 +20892,7 @@
         <v>0.4026447753038234</v>
       </c>
       <c r="F347" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G347" t="n">
         <v>42</v>
@@ -20907,7 +20907,7 @@
         <v>31</v>
       </c>
       <c r="K347" t="n">
-        <v>35.04541536184487</v>
+        <v>35.04541536184485</v>
       </c>
       <c r="L347" t="n">
         <v>9.680628439741454</v>
@@ -20945,13 +20945,13 @@
         <v>1872</v>
       </c>
       <c r="D348" t="n">
-        <v>0.6579293435811113</v>
+        <v>0.657929343581111</v>
       </c>
       <c r="E348" t="n">
-        <v>-0.05481860353389063</v>
+        <v>-0.05481860353389058</v>
       </c>
       <c r="F348" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G348" t="n">
         <v>21</v>
@@ -20966,7 +20966,7 @@
         <v>7</v>
       </c>
       <c r="K348" t="n">
-        <v>12.58953092454349</v>
+        <v>12.58953092454348</v>
       </c>
       <c r="L348" t="n">
         <v>5.710248405601607</v>
@@ -21004,13 +21004,13 @@
         <v>1894</v>
       </c>
       <c r="D349" t="n">
-        <v>0.6682422186755835</v>
+        <v>0.6682422186755831</v>
       </c>
       <c r="E349" t="n">
-        <v>-0.04450572843941852</v>
+        <v>-0.04450572843941847</v>
       </c>
       <c r="F349" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G349" t="n">
         <v>22</v>
@@ -21025,10 +21025,10 @@
         <v>13</v>
       </c>
       <c r="K349" t="n">
-        <v>12.1230383089249</v>
+        <v>12.12303830892489</v>
       </c>
       <c r="L349" t="n">
-        <v>5.799755096768237</v>
+        <v>5.799755096768235</v>
       </c>
       <c r="M349" t="inlineStr">
         <is>
@@ -21063,13 +21063,13 @@
         <v>1913</v>
       </c>
       <c r="D350" t="n">
-        <v>0.5607040744089541</v>
+        <v>0.5607040744089538</v>
       </c>
       <c r="E350" t="n">
-        <v>-0.1520438727060479</v>
+        <v>-0.1520438727060478</v>
       </c>
       <c r="F350" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G350" t="n">
         <v>19</v>
@@ -21084,10 +21084,10 @@
         <v>10</v>
       </c>
       <c r="K350" t="n">
-        <v>8.981974062949584</v>
+        <v>8.981974062949579</v>
       </c>
       <c r="L350" t="n">
-        <v>4.866418526768951</v>
+        <v>4.86641852676895</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
@@ -21122,19 +21122,19 @@
         <v>1940</v>
       </c>
       <c r="D351" t="n">
-        <v>0.6953941645231254</v>
+        <v>0.695394164523125</v>
       </c>
       <c r="E351" t="n">
-        <v>-0.01735378259187662</v>
+        <v>-0.01735378259187657</v>
       </c>
       <c r="F351" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G351" t="n">
         <v>27</v>
       </c>
       <c r="H351" t="n">
-        <v>17.8548952690719</v>
+        <v>17.85489526907168</v>
       </c>
       <c r="I351" t="n">
         <v>18</v>
@@ -21143,10 +21143,10 @@
         <v>9</v>
       </c>
       <c r="K351" t="n">
-        <v>15.18824169381598</v>
+        <v>15.18824169381597</v>
       </c>
       <c r="L351" t="n">
-        <v>6.035410121122373</v>
+        <v>6.035410121122371</v>
       </c>
       <c r="M351" t="inlineStr">
         <is>
@@ -21181,13 +21181,13 @@
         <v>1976</v>
       </c>
       <c r="D352" t="n">
-        <v>0.6794787997915649</v>
+        <v>0.6794787997915646</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.03326914732343712</v>
+        <v>-0.03326914732343705</v>
       </c>
       <c r="F352" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G352" t="n">
         <v>36</v>
@@ -21202,10 +21202,10 @@
         <v>15</v>
       </c>
       <c r="K352" t="n">
-        <v>19.26271004228508</v>
+        <v>19.26271004228507</v>
       </c>
       <c r="L352" t="n">
-        <v>5.897278744296561</v>
+        <v>5.89727874429656</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
@@ -21240,13 +21240,13 @@
         <v>1995</v>
       </c>
       <c r="D353" t="n">
-        <v>0.3670857738967495</v>
+        <v>0.3670857738967492</v>
       </c>
       <c r="E353" t="n">
-        <v>-0.3456621732182525</v>
+        <v>-0.3456621732182524</v>
       </c>
       <c r="F353" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G353" t="n">
         <v>19</v>
@@ -21261,10 +21261,10 @@
         <v>9</v>
       </c>
       <c r="K353" t="n">
-        <v>6.123177547650926</v>
+        <v>6.123177547650918</v>
       </c>
       <c r="L353" t="n">
-        <v>3.185981861978659</v>
+        <v>3.185981861978657</v>
       </c>
       <c r="M353" t="inlineStr">
         <is>
@@ -21299,13 +21299,13 @@
         <v>2026</v>
       </c>
       <c r="D354" t="n">
-        <v>0.506359994635916</v>
+        <v>0.5063599946359156</v>
       </c>
       <c r="E354" t="n">
-        <v>-0.206387952479086</v>
+        <v>-0.2063879524790859</v>
       </c>
       <c r="F354" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G354" t="n">
         <v>31</v>
@@ -21320,10 +21320,10 @@
         <v>16</v>
       </c>
       <c r="K354" t="n">
-        <v>11.04553585159022</v>
+        <v>11.04553585159021</v>
       </c>
       <c r="L354" t="n">
-        <v>4.394759680867939</v>
+        <v>4.394759680867938</v>
       </c>
       <c r="M354" t="inlineStr">
         <is>
@@ -21358,13 +21358,13 @@
         <v>2083</v>
       </c>
       <c r="D355" t="n">
-        <v>0.5532784223810536</v>
+        <v>0.5532784223810534</v>
       </c>
       <c r="E355" t="n">
-        <v>-0.1594695247339484</v>
+        <v>-0.1594695247339482</v>
       </c>
       <c r="F355" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G355" t="n">
         <v>57</v>
@@ -21379,7 +21379,7 @@
         <v>20</v>
       </c>
       <c r="K355" t="n">
-        <v>19.71608508126614</v>
+        <v>19.71608508126612</v>
       </c>
       <c r="L355" t="n">
         <v>4.801970394052944</v>
@@ -21417,13 +21417,13 @@
         <v>2117</v>
       </c>
       <c r="D356" t="n">
-        <v>0.3973013847671609</v>
+        <v>0.3973013847671605</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.3154465623478411</v>
+        <v>-0.315446562347841</v>
       </c>
       <c r="F356" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G356" t="n">
         <v>34</v>
@@ -21438,10 +21438,10 @@
         <v>26</v>
       </c>
       <c r="K356" t="n">
-        <v>11.61638910268299</v>
+        <v>11.61638910268298</v>
       </c>
       <c r="L356" t="n">
-        <v>3.448226805877827</v>
+        <v>3.448226805877825</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
@@ -21476,13 +21476,13 @@
         <v>2182</v>
       </c>
       <c r="D357" t="n">
-        <v>0.5130235068323936</v>
+        <v>0.5130235068323933</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.1997244402826084</v>
+        <v>-0.1997244402826082</v>
       </c>
       <c r="F357" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G357" t="n">
         <v>65</v>
@@ -21497,10 +21497,10 @@
         <v>32</v>
       </c>
       <c r="K357" t="n">
-        <v>19.71646562236857</v>
+        <v>19.71646562236855</v>
       </c>
       <c r="L357" t="n">
-        <v>4.452593109741221</v>
+        <v>4.45259310974122</v>
       </c>
       <c r="M357" t="inlineStr">
         <is>
@@ -21535,13 +21535,13 @@
         <v>2218</v>
       </c>
       <c r="D358" t="n">
-        <v>1.601149868659479</v>
+        <v>1.601149868659478</v>
       </c>
       <c r="E358" t="n">
-        <v>0.8884019215444767</v>
+        <v>0.8884019215444765</v>
       </c>
       <c r="F358" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G358" t="n">
         <v>36</v>
@@ -21556,7 +21556,7 @@
         <v>7</v>
       </c>
       <c r="K358" t="n">
-        <v>25.31422150975654</v>
+        <v>25.31422150975652</v>
       </c>
       <c r="L358" t="n">
         <v>13.89657350571542</v>
@@ -21594,13 +21594,13 @@
         <v>2250</v>
       </c>
       <c r="D359" t="n">
-        <v>3.513430634926608</v>
+        <v>3.513430634926606</v>
       </c>
       <c r="E359" t="n">
-        <v>2.800682687811606</v>
+        <v>2.800682687811604</v>
       </c>
       <c r="F359" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G359" t="n">
         <v>32</v>
@@ -21615,7 +21615,7 @@
         <v>5</v>
       </c>
       <c r="K359" t="n">
-        <v>91.55420919115252</v>
+        <v>91.55420919115248</v>
       </c>
       <c r="L359" t="n">
         <v>30.49348972958239</v>
@@ -21653,13 +21653,13 @@
         <v>2289</v>
       </c>
       <c r="D360" t="n">
-        <v>4.281730565283793</v>
+        <v>4.281730565283791</v>
       </c>
       <c r="E360" t="n">
-        <v>3.56898261816879</v>
+        <v>3.568982618168789</v>
       </c>
       <c r="F360" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G360" t="n">
         <v>39</v>
@@ -21674,7 +21674,7 @@
         <v>11</v>
       </c>
       <c r="K360" t="n">
-        <v>157.027531933942</v>
+        <v>157.0275319339419</v>
       </c>
       <c r="L360" t="n">
         <v>37.16165781654822</v>
@@ -21712,13 +21712,13 @@
         <v>2327</v>
       </c>
       <c r="D361" t="n">
-        <v>4.416253992396507</v>
+        <v>4.416253992396506</v>
       </c>
       <c r="E361" t="n">
-        <v>3.703506045281505</v>
+        <v>3.703506045281504</v>
       </c>
       <c r="F361" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G361" t="n">
         <v>38</v>
@@ -21733,7 +21733,7 @@
         <v>27</v>
       </c>
       <c r="K361" t="n">
-        <v>157.5266841578388</v>
+        <v>157.5266841578387</v>
       </c>
       <c r="L361" t="n">
         <v>38.32920292253989</v>
@@ -21771,13 +21771,13 @@
         <v>2366</v>
       </c>
       <c r="D362" t="n">
-        <v>3.993683832154125</v>
+        <v>3.993683832154123</v>
       </c>
       <c r="E362" t="n">
-        <v>3.280935885039123</v>
+        <v>3.280935885039121</v>
       </c>
       <c r="F362" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G362" t="n">
         <v>39</v>
@@ -21792,7 +21792,7 @@
         <v>29</v>
       </c>
       <c r="K362" t="n">
-        <v>141.1734619944844</v>
+        <v>141.1734619944843</v>
       </c>
       <c r="L362" t="n">
         <v>34.66166535589935</v>
@@ -21830,19 +21830,19 @@
         <v>2385</v>
       </c>
       <c r="D363" t="n">
-        <v>3.056172449182397</v>
+        <v>3.056172449182395</v>
       </c>
       <c r="E363" t="n">
-        <v>2.343424502067395</v>
+        <v>2.343424502067394</v>
       </c>
       <c r="F363" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G363" t="n">
         <v>19</v>
       </c>
       <c r="H363" t="n">
-        <v>2.720718427483462</v>
+        <v>2.720718427483916</v>
       </c>
       <c r="I363" t="n">
         <v>3</v>
@@ -21851,7 +21851,7 @@
         <v>16</v>
       </c>
       <c r="K363" t="n">
-        <v>51.92983208604387</v>
+        <v>51.92983208604384</v>
       </c>
       <c r="L363" t="n">
         <v>26.52489059113666</v>
@@ -21895,7 +21895,7 @@
         <v>1.588284954913963</v>
       </c>
       <c r="F364" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G364" t="n">
         <v>14</v>
@@ -21910,7 +21910,7 @@
         <v>11</v>
       </c>
       <c r="K364" t="n">
-        <v>31.09000841949373</v>
+        <v>31.09000841949371</v>
       </c>
       <c r="L364" t="n">
         <v>19.97094306286685</v>
@@ -21948,13 +21948,13 @@
         <v>2445</v>
       </c>
       <c r="D365" t="n">
-        <v>2.22639071620111</v>
+        <v>2.226390716201109</v>
       </c>
       <c r="E365" t="n">
         <v>1.513642769086108</v>
       </c>
       <c r="F365" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G365" t="n">
         <v>46</v>
@@ -21969,7 +21969,7 @@
         <v>38</v>
       </c>
       <c r="K365" t="n">
-        <v>76.14864900717122</v>
+        <v>76.14864900717119</v>
       </c>
       <c r="L365" t="n">
         <v>19.32311449772917</v>
@@ -22010,10 +22010,10 @@
         <v>1.140763457372825</v>
       </c>
       <c r="E366" t="n">
-        <v>0.4280155102578234</v>
+        <v>0.4280155102578232</v>
       </c>
       <c r="F366" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G366" t="n">
         <v>35</v>
@@ -22028,10 +22028,10 @@
         <v>32</v>
       </c>
       <c r="K366" t="n">
-        <v>30.0286402955029</v>
+        <v>30.02864029550289</v>
       </c>
       <c r="L366" t="n">
-        <v>9.900824119161184</v>
+        <v>9.900824119161182</v>
       </c>
       <c r="M366" t="inlineStr">
         <is>
@@ -22066,13 +22066,13 @@
         <v>2505</v>
       </c>
       <c r="D367" t="n">
-        <v>0.4328325901053757</v>
+        <v>0.4328325901053753</v>
       </c>
       <c r="E367" t="n">
-        <v>-0.2799153570096263</v>
+        <v>-0.2799153570096262</v>
       </c>
       <c r="F367" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G367" t="n">
         <v>25</v>
@@ -22087,10 +22087,10 @@
         <v>18</v>
       </c>
       <c r="K367" t="n">
-        <v>8.927134034299499</v>
+        <v>8.927134034299492</v>
       </c>
       <c r="L367" t="n">
-        <v>3.756606437537517</v>
+        <v>3.756606437537515</v>
       </c>
       <c r="M367" t="inlineStr">
         <is>
@@ -22125,13 +22125,13 @@
         <v>2582</v>
       </c>
       <c r="D368" t="n">
-        <v>0.770658912420969</v>
+        <v>0.7706589124209686</v>
       </c>
       <c r="E368" t="n">
-        <v>0.05791096530596698</v>
+        <v>0.05791096530596702</v>
       </c>
       <c r="F368" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G368" t="n">
         <v>77</v>
@@ -22146,10 +22146,10 @@
         <v>59</v>
       </c>
       <c r="K368" t="n">
-        <v>26.0254137990206</v>
+        <v>26.02541379902058</v>
       </c>
       <c r="L368" t="n">
-        <v>6.688641977817459</v>
+        <v>6.688641977817458</v>
       </c>
       <c r="M368" t="inlineStr">
         <is>
@@ -22184,13 +22184,13 @@
         <v>2749</v>
       </c>
       <c r="D369" t="n">
-        <v>0.4652472343539268</v>
+        <v>0.4652472343539265</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.2475007127610752</v>
+        <v>-0.2475007127610751</v>
       </c>
       <c r="F369" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G369" t="n">
         <v>53</v>
@@ -22205,10 +22205,10 @@
         <v>9</v>
       </c>
       <c r="K369" t="n">
-        <v>15.3461487247168</v>
+        <v>15.34614872471679</v>
       </c>
       <c r="L369" t="n">
-        <v>4.037937058286176</v>
+        <v>4.037937058286174</v>
       </c>
       <c r="M369" t="inlineStr">
         <is>
@@ -22243,13 +22243,13 @@
         <v>2775</v>
       </c>
       <c r="D370" t="n">
-        <v>0.5314323914981185</v>
+        <v>0.5314323914981181</v>
       </c>
       <c r="E370" t="n">
         <v>-0.1813155556168835</v>
       </c>
       <c r="F370" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G370" t="n">
         <v>26</v>
@@ -22264,10 +22264,10 @@
         <v>16</v>
       </c>
       <c r="K370" t="n">
-        <v>10.56700458149881</v>
+        <v>10.56700458149879</v>
       </c>
       <c r="L370" t="n">
-        <v>4.612366047879524</v>
+        <v>4.612366047879522</v>
       </c>
       <c r="M370" t="inlineStr">
         <is>
@@ -22302,13 +22302,13 @@
         <v>2811</v>
       </c>
       <c r="D371" t="n">
-        <v>0.4262962107243229</v>
+        <v>0.4262962107243226</v>
       </c>
       <c r="E371" t="n">
-        <v>-0.2864517363906791</v>
+        <v>-0.286451736390679</v>
       </c>
       <c r="F371" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G371" t="n">
         <v>36</v>
@@ -22323,10 +22323,10 @@
         <v>23</v>
       </c>
       <c r="K371" t="n">
-        <v>9.189353521111229</v>
+        <v>9.189353521111219</v>
       </c>
       <c r="L371" t="n">
-        <v>3.699876409756863</v>
+        <v>3.699876409756861</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
@@ -22361,13 +22361,13 @@
         <v>2874</v>
       </c>
       <c r="D372" t="n">
-        <v>0.3502656019142111</v>
+        <v>0.3502656019142109</v>
       </c>
       <c r="E372" t="n">
-        <v>-0.3624823452007909</v>
+        <v>-0.3624823452007907</v>
       </c>
       <c r="F372" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G372" t="n">
         <v>63</v>
@@ -22382,10 +22382,10 @@
         <v>8</v>
       </c>
       <c r="K372" t="n">
-        <v>13.4763933694563</v>
+        <v>13.47639336945628</v>
       </c>
       <c r="L372" t="n">
-        <v>3.039997553508013</v>
+        <v>3.039997553508011</v>
       </c>
       <c r="M372" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2834), 'value': np.float64(-0.4228516096166586), 'amplitude': np.float64(0.2898963374983434), 'start_idx': np.int64(2824), 'end_idx': np.int64(2844), 'duration': np.float64(20.0), 'fwhm': np.float64(10.798212221637186), 'rise_time': np.float64(10.0), 'decay_time': np.float64(10.0), 'auc': np.float64(4.3279735983005185)}]</t>
+          <t>[{'index': np.int64(2834), 'value': np.float64(-0.42285160961665835), 'amplitude': np.float64(0.2898963374983432), 'start_idx': np.int64(2824), 'end_idx': np.int64(2844), 'duration': np.float64(20.0), 'fwhm': np.float64(10.798212221637186), 'rise_time': np.float64(10.0), 'decay_time': np.float64(10.0), 'auc': np.float64(4.327973598300514)}]</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -22420,13 +22420,13 @@
         <v>2902</v>
       </c>
       <c r="D373" t="n">
-        <v>0.3599932942862593</v>
+        <v>0.359993294286259</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.3527546528287427</v>
+        <v>-0.3527546528287425</v>
       </c>
       <c r="F373" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G373" t="n">
         <v>28</v>
@@ -22441,10 +22441,10 @@
         <v>13</v>
       </c>
       <c r="K373" t="n">
-        <v>7.659048225402148</v>
+        <v>7.65904822540214</v>
       </c>
       <c r="L373" t="n">
-        <v>3.124425372998972</v>
+        <v>3.12442537299897</v>
       </c>
       <c r="M373" t="inlineStr">
         <is>
@@ -22479,13 +22479,13 @@
         <v>2964</v>
       </c>
       <c r="D374" t="n">
-        <v>1.423077416568794</v>
+        <v>1.423077416568793</v>
       </c>
       <c r="E374" t="n">
-        <v>0.7103294694537918</v>
+        <v>0.7103294694537916</v>
       </c>
       <c r="F374" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G374" t="n">
         <v>62</v>
@@ -22500,7 +22500,7 @@
         <v>33</v>
       </c>
       <c r="K374" t="n">
-        <v>57.61316801491468</v>
+        <v>57.61316801491464</v>
       </c>
       <c r="L374" t="n">
         <v>12.35106114097159</v>
@@ -22538,13 +22538,13 @@
         <v>2984</v>
       </c>
       <c r="D375" t="n">
-        <v>0.5469604403678719</v>
+        <v>0.5469604403678716</v>
       </c>
       <c r="E375" t="n">
-        <v>-0.1657875067471301</v>
+        <v>-0.16578750674713</v>
       </c>
       <c r="F375" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G375" t="n">
         <v>20</v>
@@ -22559,10 +22559,10 @@
         <v>13</v>
       </c>
       <c r="K375" t="n">
-        <v>8.513486279208454</v>
+        <v>8.513486279208449</v>
       </c>
       <c r="L375" t="n">
-        <v>4.747135863461829</v>
+        <v>4.747135863461828</v>
       </c>
       <c r="M375" t="inlineStr">
         <is>
@@ -22597,13 +22597,13 @@
         <v>2998</v>
       </c>
       <c r="D376" t="n">
-        <v>0.4227577336396409</v>
+        <v>0.4227577336396394</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.2899902134753611</v>
+        <v>-0.2899902134753621</v>
       </c>
       <c r="F376" t="n">
-        <v>-0.712747947115002</v>
+        <v>-0.7127479471150016</v>
       </c>
       <c r="G376" t="n">
         <v>14</v>
@@ -22618,10 +22618,10 @@
         <v>6</v>
       </c>
       <c r="K376" t="n">
-        <v>4.476754488059837</v>
+        <v>4.476754488059825</v>
       </c>
       <c r="L376" t="n">
-        <v>3.669165538858349</v>
+        <v>3.669165538858338</v>
       </c>
       <c r="M376" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>13</v>
       </c>
       <c r="K417" t="n">
-        <v>68.12440022835413</v>
+        <v>68.12440022835406</v>
       </c>
       <c r="L417" t="n">
         <v>17.67726068184621</v>
@@ -25099,7 +25099,7 @@
         <v>53.58696697774536</v>
       </c>
       <c r="L418" t="n">
-        <v>4.889757033883075</v>
+        <v>4.889757033883074</v>
       </c>
       <c r="M418" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>86.7537370141476</v>
       </c>
       <c r="L420" t="n">
-        <v>4.743437603998071</v>
+        <v>4.74343760399807</v>
       </c>
       <c r="M420" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>97.72131473356555</v>
       </c>
       <c r="L421" t="n">
-        <v>5.720408775807517</v>
+        <v>5.720408775807516</v>
       </c>
       <c r="M421" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>76.2641507266657</v>
       </c>
       <c r="L422" t="n">
-        <v>6.352698398764563</v>
+        <v>6.352698398764562</v>
       </c>
       <c r="M422" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>39.8518708093758</v>
       </c>
       <c r="L425" t="n">
-        <v>6.095082268804531</v>
+        <v>6.09508226880453</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>180.0327495653426</v>
       </c>
       <c r="L428" t="n">
-        <v>17.05977901981305</v>
+        <v>17.05977901981304</v>
       </c>
       <c r="M428" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>120.8351398883842</v>
       </c>
       <c r="L431" t="n">
-        <v>12.34880637055078</v>
+        <v>12.34880637055077</v>
       </c>
       <c r="M431" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>72.60453524738799</v>
       </c>
       <c r="L432" t="n">
-        <v>7.998452576760899</v>
+        <v>7.998452576760898</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>87.91567848307182</v>
       </c>
       <c r="L434" t="n">
-        <v>9.671173798451022</v>
+        <v>9.67117379845102</v>
       </c>
       <c r="M434" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>91.11539378855066</v>
       </c>
       <c r="L435" t="n">
-        <v>5.726876134754962</v>
+        <v>5.726876134754961</v>
       </c>
       <c r="M435" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>31.31126482310233</v>
       </c>
       <c r="L439" t="n">
-        <v>4.220496737685016</v>
+        <v>4.220496737685015</v>
       </c>
       <c r="M439" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>99.93742492659392</v>
       </c>
       <c r="L441" t="n">
-        <v>10.54151019048906</v>
+        <v>10.54151019048905</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
@@ -26512,10 +26512,10 @@
         <v>46</v>
       </c>
       <c r="K442" t="n">
-        <v>144.7787604649383</v>
+        <v>144.7787604649384</v>
       </c>
       <c r="L442" t="n">
-        <v>8.911684018263506</v>
+        <v>8.911684018263504</v>
       </c>
       <c r="M442" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>18</v>
       </c>
       <c r="D473" t="n">
-        <v>2.512163536247553</v>
+        <v>2.512163536247554</v>
       </c>
       <c r="E473" t="n">
         <v>1.675850840502957</v>
@@ -28332,7 +28332,7 @@
         <v>18</v>
       </c>
       <c r="H473" t="n">
-        <v>9.815037756208818</v>
+        <v>9.815037756208815</v>
       </c>
       <c r="I473" t="n">
         <v>6</v>
@@ -28344,7 +28344,7 @@
         <v>43.90727071911191</v>
       </c>
       <c r="L473" t="n">
-        <v>7.33889001105032</v>
+        <v>7.338890011050321</v>
       </c>
       <c r="M473" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>1.606884794147771</v>
       </c>
       <c r="E504" t="n">
-        <v>0.7705720984031749</v>
+        <v>0.7705720984031746</v>
       </c>
       <c r="F504" t="n">
         <v>-0.8363126957445964</v>
@@ -30170,7 +30170,7 @@
         <v>8</v>
       </c>
       <c r="K504" t="n">
-        <v>58.25953531256575</v>
+        <v>58.25953531256573</v>
       </c>
       <c r="L504" t="n">
         <v>4.694260781403861</v>
@@ -31707,7 +31707,7 @@
         <v>35.81683049402746</v>
       </c>
       <c r="L530" t="n">
-        <v>5.484604325228313</v>
+        <v>5.484604325228312</v>
       </c>
       <c r="M530" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>41.08685212580577</v>
       </c>
       <c r="L531" t="n">
-        <v>7.602076787718818</v>
+        <v>7.602076787718817</v>
       </c>
       <c r="M531" t="inlineStr">
         <is>
@@ -31825,7 +31825,7 @@
         <v>24.00015674994953</v>
       </c>
       <c r="L532" t="n">
-        <v>4.332362208774972</v>
+        <v>4.332362208774971</v>
       </c>
       <c r="M532" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>31.14760932167275</v>
       </c>
       <c r="L535" t="n">
-        <v>9.456932225597559</v>
+        <v>9.456932225597557</v>
       </c>
       <c r="M535" t="inlineStr">
         <is>
@@ -32061,7 +32061,7 @@
         <v>453.009805353118</v>
       </c>
       <c r="L536" t="n">
-        <v>31.77464403437721</v>
+        <v>31.7746440343772</v>
       </c>
       <c r="M536" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>51.74673332671256</v>
       </c>
       <c r="L537" t="n">
-        <v>8.156915910247273</v>
+        <v>8.156915910247271</v>
       </c>
       <c r="M537" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>41.07351339138257</v>
       </c>
       <c r="L538" t="n">
-        <v>8.924806301010356</v>
+        <v>8.924806301010355</v>
       </c>
       <c r="M538" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>107.9490359560883</v>
       </c>
       <c r="L540" t="n">
-        <v>11.78434927408561</v>
+        <v>11.7843492740856</v>
       </c>
       <c r="M540" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>39.09339901840553</v>
       </c>
       <c r="L542" t="n">
-        <v>4.981227950092023</v>
+        <v>4.981227950092022</v>
       </c>
       <c r="M542" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>96.97319084877819</v>
       </c>
       <c r="L543" t="n">
-        <v>11.41052459430627</v>
+        <v>11.41052459430626</v>
       </c>
       <c r="M543" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>59.85466440110173</v>
       </c>
       <c r="L545" t="n">
-        <v>4.371141866885404</v>
+        <v>4.371141866885403</v>
       </c>
       <c r="M545" t="inlineStr">
         <is>
@@ -32651,7 +32651,7 @@
         <v>89.43910094763174</v>
       </c>
       <c r="L546" t="n">
-        <v>9.763023024668525</v>
+        <v>9.763023024668524</v>
       </c>
       <c r="M546" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>43.83576554101104</v>
       </c>
       <c r="L547" t="n">
-        <v>5.553734920719322</v>
+        <v>5.553734920719321</v>
       </c>
       <c r="M547" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>79</v>
       </c>
       <c r="H548" t="n">
-        <v>19.91379724528979</v>
+        <v>19.91379724528981</v>
       </c>
       <c r="I548" t="n">
         <v>31</v>
@@ -32781,7 +32781,7 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(7), 'value': np.float64(-0.1883595020065908), 'amplitude': np.float64(0.3741965230006282), 'start_idx': np.int64(1), 'end_idx': np.int64(18), 'duration': np.float64(17.0), 'fwhm': np.float64(10.005253531435468), 'rise_time': np.float64(6.0), 'decay_time': np.float64(11.0), 'auc': np.float64(4.663985375434212)}]</t>
+          <t>[{'index': np.int64(7), 'value': np.float64(-0.18835950200659102), 'amplitude': np.float64(0.374196523000628), 'start_idx': np.int64(1), 'end_idx': np.int64(18), 'duration': np.float64(17.0), 'fwhm': np.float64(10.005253531435468), 'rise_time': np.float64(6.0), 'decay_time': np.float64(11.0), 'auc': np.float64(4.663985375434208)}]</t>
         </is>
       </c>
       <c r="P548" t="inlineStr">
@@ -38704,10 +38704,10 @@
         <v>2998</v>
       </c>
       <c r="D649" t="n">
-        <v>3.503983997869062</v>
+        <v>3.503983997869061</v>
       </c>
       <c r="E649" t="n">
-        <v>2.970844532019238</v>
+        <v>2.970844532019237</v>
       </c>
       <c r="F649" t="n">
         <v>-0.5331394658498244</v>
@@ -38728,7 +38728,7 @@
         <v>109.4402431138437</v>
       </c>
       <c r="L649" t="n">
-        <v>13.02666564350206</v>
+        <v>13.02666564350205</v>
       </c>
       <c r="M649" t="inlineStr">
         <is>
@@ -49761,7 +49761,7 @@
         <v>92.0727641740293</v>
       </c>
       <c r="L836" t="n">
-        <v>9.49087163569636</v>
+        <v>9.490871635696358</v>
       </c>
       <c r="M836" t="inlineStr">
         <is>
@@ -49820,7 +49820,7 @@
         <v>24.64975289021505</v>
       </c>
       <c r="L837" t="n">
-        <v>4.560310270823107</v>
+        <v>4.560310270823106</v>
       </c>
       <c r="M837" t="inlineStr">
         <is>
@@ -49879,7 +49879,7 @@
         <v>25.31799204012551</v>
       </c>
       <c r="L838" t="n">
-        <v>3.393443686537781</v>
+        <v>3.39344368653778</v>
       </c>
       <c r="M838" t="inlineStr">
         <is>
@@ -49997,7 +49997,7 @@
         <v>68.14043752199497</v>
       </c>
       <c r="L840" t="n">
-        <v>7.717684312390435</v>
+        <v>7.717684312390433</v>
       </c>
       <c r="M840" t="inlineStr">
         <is>
@@ -50056,7 +50056,7 @@
         <v>79.92519816767313</v>
       </c>
       <c r="L841" t="n">
-        <v>11.61445768350952</v>
+        <v>11.61445768350951</v>
       </c>
       <c r="M841" t="inlineStr">
         <is>
@@ -50174,7 +50174,7 @@
         <v>105.1215501234113</v>
       </c>
       <c r="L843" t="n">
-        <v>7.768312687043972</v>
+        <v>7.76831268704397</v>
       </c>
       <c r="M843" t="inlineStr">
         <is>
@@ -50233,7 +50233,7 @@
         <v>21.79041810967154</v>
       </c>
       <c r="L844" t="n">
-        <v>4.114297560235236</v>
+        <v>4.114297560235235</v>
       </c>
       <c r="M844" t="inlineStr">
         <is>
@@ -50410,7 +50410,7 @@
         <v>20.75806282574673</v>
       </c>
       <c r="L847" t="n">
-        <v>3.82066891608002</v>
+        <v>3.820668916080019</v>
       </c>
       <c r="M847" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>25.53578937527275</v>
       </c>
       <c r="L848" t="n">
-        <v>4.076195165910022</v>
+        <v>4.076195165910021</v>
       </c>
       <c r="M848" t="inlineStr">
         <is>
@@ -50528,7 +50528,7 @@
         <v>45.11487271939769</v>
       </c>
       <c r="L849" t="n">
-        <v>5.679085219864511</v>
+        <v>5.67908521986451</v>
       </c>
       <c r="M849" t="inlineStr">
         <is>
@@ -50587,7 +50587,7 @@
         <v>52.88736763554744</v>
       </c>
       <c r="L850" t="n">
-        <v>5.899941866019595</v>
+        <v>5.899941866019593</v>
       </c>
       <c r="M850" t="inlineStr">
         <is>
@@ -50646,7 +50646,7 @@
         <v>111.7157487324074</v>
       </c>
       <c r="L851" t="n">
-        <v>4.352085042684817</v>
+        <v>4.352085042684816</v>
       </c>
       <c r="M851" t="inlineStr">
         <is>
@@ -50764,7 +50764,7 @@
         <v>25.68340991723573</v>
       </c>
       <c r="L853" t="n">
-        <v>5.018494968593358</v>
+        <v>5.018494968593357</v>
       </c>
       <c r="M853" t="inlineStr">
         <is>
@@ -50882,7 +50882,7 @@
         <v>84.66494115655777</v>
       </c>
       <c r="L855" t="n">
-        <v>6.363536865637752</v>
+        <v>6.363536865637751</v>
       </c>
       <c r="M855" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>128.5640809279692</v>
       </c>
       <c r="L856" t="n">
-        <v>9.440404013238087</v>
+        <v>9.440404013238085</v>
       </c>
       <c r="M856" t="inlineStr">
         <is>
@@ -51000,7 +51000,7 @@
         <v>117.4226942620838</v>
       </c>
       <c r="L857" t="n">
-        <v>8.427487503833319</v>
+        <v>8.427487503833317</v>
       </c>
       <c r="M857" t="inlineStr">
         <is>
@@ -51059,7 +51059,7 @@
         <v>30.73669733181535</v>
       </c>
       <c r="L858" t="n">
-        <v>5.767038596370011</v>
+        <v>5.76703859637001</v>
       </c>
       <c r="M858" t="inlineStr">
         <is>
@@ -51118,7 +51118,7 @@
         <v>133.9127229461067</v>
       </c>
       <c r="L859" t="n">
-        <v>7.668225712890875</v>
+        <v>7.668225712890873</v>
       </c>
       <c r="M859" t="inlineStr">
         <is>
@@ -51177,7 +51177,7 @@
         <v>74.23052094559569</v>
       </c>
       <c r="L860" t="n">
-        <v>3.920124404221673</v>
+        <v>3.920124404221672</v>
       </c>
       <c r="M860" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>60.67826984719783</v>
       </c>
       <c r="L861" t="n">
-        <v>3.88508754171096</v>
+        <v>3.885087541710959</v>
       </c>
       <c r="M861" t="inlineStr">
         <is>
@@ -51295,7 +51295,7 @@
         <v>97.27364005342656</v>
       </c>
       <c r="L862" t="n">
-        <v>6.77021500478344</v>
+        <v>6.770215004783439</v>
       </c>
       <c r="M862" t="inlineStr">
         <is>
@@ -51342,7 +51342,7 @@
         <v>57</v>
       </c>
       <c r="H863" t="n">
-        <v>39.71365286568471</v>
+        <v>39.71365286568516</v>
       </c>
       <c r="I863" t="n">
         <v>13</v>
@@ -51354,7 +51354,7 @@
         <v>52.47017708684566</v>
       </c>
       <c r="L863" t="n">
-        <v>5.760585897611223</v>
+        <v>5.760585897611222</v>
       </c>
       <c r="M863" t="inlineStr">
         <is>
@@ -51413,7 +51413,7 @@
         <v>24.98957960471764</v>
       </c>
       <c r="L864" t="n">
-        <v>3.728336889091475</v>
+        <v>3.728336889091474</v>
       </c>
       <c r="M864" t="inlineStr">
         <is>
@@ -51472,7 +51472,7 @@
         <v>38.10605550941587</v>
       </c>
       <c r="L865" t="n">
-        <v>3.708423194688252</v>
+        <v>3.708423194688251</v>
       </c>
       <c r="M865" t="inlineStr">
         <is>
@@ -53121,7 +53121,7 @@
         <v>40</v>
       </c>
       <c r="K893" t="n">
-        <v>27.54767366290526</v>
+        <v>27.54767366290523</v>
       </c>
       <c r="L893" t="n">
         <v>4.261026762898462</v>
@@ -54339,10 +54339,10 @@
         <v>2998</v>
       </c>
       <c r="D914" t="n">
-        <v>4.203087591875992</v>
+        <v>4.203087591875993</v>
       </c>
       <c r="E914" t="n">
-        <v>3.678986578158408</v>
+        <v>3.678986578158409</v>
       </c>
       <c r="F914" t="n">
         <v>-0.5241010137175842</v>
@@ -55637,10 +55637,10 @@
         <v>2998</v>
       </c>
       <c r="D936" t="n">
-        <v>7.960925584864439</v>
+        <v>7.960925584864445</v>
       </c>
       <c r="E936" t="n">
-        <v>7.448136508958711</v>
+        <v>7.448136508958717</v>
       </c>
       <c r="F936" t="n">
         <v>-0.5127890759057288</v>
@@ -55661,7 +55661,7 @@
         <v>141.2042395873155</v>
       </c>
       <c r="L936" t="n">
-        <v>23.43994338264526</v>
+        <v>23.43994338264527</v>
       </c>
       <c r="M936" t="inlineStr">
         <is>
@@ -57030,7 +57030,7 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2979), 'value': np.float64(0.24180608379443305), 'amplitude': np.float64(0.8214958981620547), 'start_idx': np.int64(2968), 'end_idx': np.int64(2992), 'duration': np.float64(24.0), 'fwhm': np.float64(11.166271145295468), 'rise_time': np.float64(11.0), 'decay_time': np.float64(13.0), 'auc': np.float64(13.13896365841149)}]</t>
+          <t>[{'index': np.int64(2979), 'value': np.float64(0.24180608379443305), 'amplitude': np.float64(0.8214958981620547), 'start_idx': np.int64(2968), 'end_idx': np.int64(2992), 'duration': np.float64(24.0), 'fwhm': np.float64(11.166271145295468), 'rise_time': np.float64(11.0), 'decay_time': np.float64(13.0), 'auc': np.float64(13.138963658411486)}]</t>
         </is>
       </c>
       <c r="P959" t="inlineStr">
@@ -59198,7 +59198,7 @@
         <v>1</v>
       </c>
       <c r="K996" t="n">
-        <v>49.38418457233254</v>
+        <v>49.38418457233253</v>
       </c>
       <c r="L996" t="n">
         <v>3.259826444144709</v>
@@ -61006,10 +61006,10 @@
         <v>2998</v>
       </c>
       <c r="D1027" t="n">
-        <v>0.8970964731391664</v>
+        <v>0.8970964731391633</v>
       </c>
       <c r="E1027" t="n">
-        <v>0.2768243726406374</v>
+        <v>0.2768243726406342</v>
       </c>
       <c r="F1027" t="n">
         <v>-0.6202721004985291</v>
@@ -61027,10 +61027,10 @@
         <v>5</v>
       </c>
       <c r="K1027" t="n">
-        <v>26.44512356637238</v>
+        <v>26.44512356637234</v>
       </c>
       <c r="L1027" t="n">
-        <v>4.553396548065145</v>
+        <v>4.553396548065129</v>
       </c>
       <c r="M1027" t="inlineStr">
         <is>
